--- a/week-4-structure-and-named-ranges/video4.1-start.xlsx
+++ b/week-4-structure-and-named-ranges/video4.1-start.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="2160" windowWidth="15520" windowHeight="14140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7920" yWindow="2460" windowWidth="20740" windowHeight="14140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teachers" sheetId="1" r:id="rId1"/>
     <sheet name="Planning" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="MaxLevel">Teachers!$D$1:$D$10</definedName>
+    <definedName name="MaxLevel">Teachers!$D:$D</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Number of Teachers</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Shelly</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,6 +642,40 @@
         <v>3</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
@@ -649,7 +689,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +712,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(MaxLevel,"&gt;="&amp;A2)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,7 +721,7 @@
       </c>
       <c r="B3">
         <f>COUNTIF(MaxLevel,"&gt;="&amp;A3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -690,7 +730,7 @@
       </c>
       <c r="B4">
         <f>COUNTIF(MaxLevel,"&gt;="&amp;A4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +739,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(MaxLevel,"&gt;="&amp;A5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
